--- a/daten/nanotori/Tabelle.xlsx
+++ b/daten/nanotori/Tabelle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\promotion\daten\nanotori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Kevin Reiter\Documents\GitHub\promotion\daten\nanotori\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{877DBB98-1A5B-4EBB-A59B-977B1B0B8F37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>polyhex</t>
   </si>
@@ -180,13 +181,7 @@
     </r>
   </si>
   <si>
-    <t>metallisch</t>
-  </si>
-  <si>
     <t>(7,0),(-21,42)</t>
-  </si>
-  <si>
-    <t>isolierend</t>
   </si>
   <si>
     <r>
@@ -248,11 +243,114 @@
   <si>
     <t>HOMO-LUMO Gap</t>
   </si>
+  <si>
+    <t>(2,1,1,1),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,2),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,3),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,4),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,5),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,6),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,7),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,8),(1,0)</t>
+  </si>
+  <si>
+    <t>(2,1,1,9),(1,0)</t>
+  </si>
+  <si>
+    <t>(1,2,2,1),(1,1)</t>
+  </si>
+  <si>
+    <t>(1,2,2,2),(1,1)</t>
+  </si>
+  <si>
+    <t>(1,2,2,3),(1,1)</t>
+  </si>
+  <si>
+    <t>(1,2,2,4),(1,1)</t>
+  </si>
+  <si>
+    <t>(1,2,2,5),(1,1)</t>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6h</t>
+    </r>
+  </si>
+  <si>
+    <t>2(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>3(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>4(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>6(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>5(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>7(4,4) 1(8,0)</t>
+  </si>
+  <si>
+    <t>2(4,4) 2(8,0)</t>
+  </si>
+  <si>
+    <t>3(4,4) 2(8,0)</t>
+  </si>
+  <si>
+    <t>2(4,4) 3(8,0)</t>
+  </si>
+  <si>
+    <t>3(4,4) 3(8,0)</t>
+  </si>
+  <si>
+    <t>armchair-zigzag</t>
+  </si>
+  <si>
+    <t>Chuang</t>
+  </si>
+  <si>
+    <t>nA/T</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,8 +388,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -571,19 +679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -599,585 +709,802 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>480</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>0.19627</v>
-      </c>
-      <c r="H2">
-        <v>84.43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>576</v>
+      <c r="C3" s="2">
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>0.17727999999999999</v>
-      </c>
-      <c r="H3">
-        <v>112.82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.19627</v>
+      </c>
+      <c r="G3" s="4">
+        <v>84.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>672</v>
+      <c r="C4" s="2">
+        <v>576</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0.13724</v>
-      </c>
-      <c r="H4">
-        <v>143.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.17727999999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>112.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>768</v>
+      <c r="C5" s="2">
+        <v>672</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0.12594</v>
-      </c>
-      <c r="H5">
-        <v>171.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13724</v>
+      </c>
+      <c r="G5" s="4">
+        <v>143.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>864</v>
+      <c r="C6" s="2">
+        <v>768</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>0.11342000000000001</v>
-      </c>
-      <c r="H6">
-        <v>200.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.12594</v>
+      </c>
+      <c r="G6" s="4">
+        <v>171.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <v>864</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.11342000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>200.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
         <v>960</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
+      <c r="F8" s="1">
         <v>9.7949999999999995E-2</v>
       </c>
-      <c r="H7">
+      <c r="G8" s="4">
         <v>235.74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>588</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9">
-        <v>0.15881000000000001</v>
-      </c>
-      <c r="H9">
-        <v>9.4818960000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>756</v>
+      <c r="C10" s="2">
+        <v>588</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>0.31036999999999998</v>
-      </c>
-      <c r="H10">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.15881000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9.4818960000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>924</v>
+      <c r="C11" s="2">
+        <v>756</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>0.31036999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>924</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.17147000000000001</v>
       </c>
-      <c r="H11">
+      <c r="G12" s="4">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>192</v>
-      </c>
-      <c r="G13">
-        <v>1.32551</v>
-      </c>
-      <c r="H13">
-        <v>-3.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>288</v>
-      </c>
-      <c r="G14">
-        <v>0.32497999999999999</v>
-      </c>
-      <c r="H14">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" s="2">
+        <v>192</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.32551</v>
+      </c>
+      <c r="G14" s="4">
+        <v>-3.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>384</v>
-      </c>
-      <c r="G15">
-        <v>0.29209000000000002</v>
-      </c>
-      <c r="H15">
-        <v>-2.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="2">
+        <v>288</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.32497999999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>480</v>
-      </c>
-      <c r="G16">
-        <v>0.52476999999999996</v>
-      </c>
-      <c r="H16">
-        <v>-2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" s="2">
+        <v>384</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.29209000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>576</v>
-      </c>
-      <c r="G17">
-        <v>4.1110000000000001E-2</v>
-      </c>
-      <c r="H17">
-        <v>57.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <v>480</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.52476999999999996</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>672</v>
-      </c>
-      <c r="G18">
-        <v>0.39933000000000002</v>
-      </c>
-      <c r="H18">
-        <v>-2.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="2">
+        <v>576</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4.1110000000000001E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>57.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
-        <v>768</v>
-      </c>
-      <c r="G19">
-        <v>0.22570999999999999</v>
-      </c>
-      <c r="H19">
-        <v>-3.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="2">
+        <v>672</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.39933000000000002</v>
+      </c>
+      <c r="G19" s="4">
+        <v>-2.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20">
-        <v>864</v>
-      </c>
-      <c r="G20">
-        <v>8.7770000000000001E-2</v>
-      </c>
-      <c r="H20">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
+        <v>768</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.22570999999999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>-3.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <v>864</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.7770000000000001E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
         <v>960</v>
       </c>
-      <c r="G21">
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.31318000000000001</v>
       </c>
-      <c r="H21">
+      <c r="G22" s="4">
         <v>-2.66</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>252</v>
-      </c>
-      <c r="G23">
-        <v>0.26218999999999998</v>
-      </c>
-      <c r="H23">
-        <v>-8.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>420</v>
-      </c>
-      <c r="G24">
-        <v>6.7369999999999999E-2</v>
-      </c>
-      <c r="H24">
-        <v>-94.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C24" s="2">
+        <v>252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.26218999999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <v>-8.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>588</v>
-      </c>
-      <c r="G25">
-        <v>0.24864</v>
-      </c>
-      <c r="H25">
-        <v>-12.91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25" s="2">
+        <v>420</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6.7369999999999999E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>-94.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>756</v>
-      </c>
-      <c r="G26">
-        <v>0.35639999999999999</v>
-      </c>
-      <c r="H26">
-        <v>-3.47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C26" s="2">
+        <v>588</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.24864</v>
+      </c>
+      <c r="G26" s="4">
+        <v>-12.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <v>756</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>-3.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
         <v>924</v>
       </c>
-      <c r="G27">
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.33444000000000002</v>
       </c>
-      <c r="H27">
+      <c r="G28" s="4">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>480</v>
-      </c>
-      <c r="G29">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="H29">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>576</v>
-      </c>
-      <c r="G30">
-        <v>0.18253</v>
-      </c>
-      <c r="H30">
-        <v>117.84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
+        <v>480</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="C31">
-        <v>672</v>
-      </c>
-      <c r="G31">
-        <v>8.0430000000000001E-2</v>
-      </c>
-      <c r="H31">
-        <v>-94.63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2">
+        <v>576</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.18253</v>
+      </c>
+      <c r="G31" s="4">
+        <v>117.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>768</v>
-      </c>
-      <c r="G32">
-        <v>0.19023000000000001</v>
-      </c>
-      <c r="H32">
-        <v>148.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2">
+        <v>672</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8.0430000000000001E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>-94.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>864</v>
-      </c>
-      <c r="G33">
-        <v>8.1839999999999996E-2</v>
-      </c>
-      <c r="H33">
-        <v>172.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>768</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.19023000000000001</v>
+      </c>
+      <c r="G33" s="4">
+        <v>148.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="C34">
-        <v>960</v>
-      </c>
-      <c r="G34">
-        <v>9.8809999999999995E-2</v>
-      </c>
-      <c r="H34">
-        <v>177.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2">
+        <v>864</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>172.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>672</v>
-      </c>
-      <c r="G36">
-        <v>9.4810000000000005E-2</v>
-      </c>
-      <c r="H36">
-        <v>94.61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
+        <v>960</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.8809999999999995E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>177.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>768</v>
-      </c>
-      <c r="G37">
-        <v>0.11705</v>
-      </c>
-      <c r="H37">
-        <v>119.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
+        <v>672</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.4810000000000005E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>94.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>864</v>
-      </c>
-      <c r="G38">
-        <v>3.2919999999999998E-2</v>
-      </c>
-      <c r="H38">
-        <v>101.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2">
+        <v>768</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.11705</v>
+      </c>
+      <c r="G38" s="4">
+        <v>119.23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
+        <v>864</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.2919999999999998E-2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>101.09</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2">
         <v>960</v>
       </c>
-      <c r="G39">
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1">
         <v>6.9389999999999993E-2</v>
       </c>
-      <c r="H39">
+      <c r="G40" s="4">
         <v>-4.07</v>
       </c>
     </row>
